--- a/c#000.BigBang/listademateriales.xlsx
+++ b/c#000.BigBang/listademateriales.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gonzalo Ingrao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielCundari\Documents\GitHub\i3d\c#000.BigBang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECCF05AE-2EDC-4070-BB60-F7244327C939}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F19ABD6B-F5C0-4493-9972-B3E3166110BE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{288E98A4-2D55-4F41-98EC-0B0325DFB928}"/>
   </bookViews>
   <sheets>
     <sheet name="Electronica" sheetId="5" r:id="rId1"/>
     <sheet name="Ferreteria" sheetId="4" r:id="rId2"/>
-    <sheet name="Piezas imresas" sheetId="3" r:id="rId3"/>
+    <sheet name="Piezas impresas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -1413,7 +1413,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1717,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
